--- a/cifsshare/pwwns.xlsx
+++ b/cifsshare/pwwns.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>sks06sq127</t>
   </si>
@@ -33,130 +33,139 @@
     <t>10.10.10.2</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
     <t>IS_name</t>
   </si>
   <si>
     <t>OTRS</t>
   </si>
   <si>
+    <t>210034800d7atbt0</t>
+  </si>
+  <si>
+    <t>210034800d7atbt1</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>serverNAME</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>init_p1/s0p1_A</t>
+  </si>
+  <si>
+    <t>init_p2/s0p2_B</t>
+  </si>
+  <si>
+    <t>init_s1p1_A</t>
+  </si>
+  <si>
+    <t>init_s1p2_B</t>
+  </si>
+  <si>
+    <t>target_A</t>
+  </si>
+  <si>
+    <t>target_B</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>210034800d111111</t>
+  </si>
+  <si>
+    <t>210034800d111112</t>
+  </si>
+  <si>
+    <t>210034800d222222</t>
+  </si>
+  <si>
+    <t>210034800d222223</t>
+  </si>
+  <si>
+    <t>210034800d333333</t>
+  </si>
+  <si>
+    <t>210034800d333334</t>
+  </si>
+  <si>
+    <t>210034800d444444</t>
+  </si>
+  <si>
+    <t>210034800d444445</t>
+  </si>
+  <si>
+    <t>zonename</t>
+  </si>
+  <si>
+    <t>cfgname</t>
+  </si>
+  <si>
+    <t>vsan</t>
+  </si>
+  <si>
+    <t>zoneset</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>storage_name</t>
+  </si>
+  <si>
+    <t>SR/SB</t>
+  </si>
+  <si>
     <t>sks06sq129</t>
   </si>
   <si>
-    <t>10.10.10.3</t>
+    <t>20.20.20.2</t>
   </si>
   <si>
     <t>sks06sq130</t>
   </si>
   <si>
-    <t>20.20.20.2</t>
-  </si>
-  <si>
-    <t>arrayname</t>
-  </si>
-  <si>
-    <t>N_OS1</t>
-  </si>
-  <si>
-    <t>init-1-A</t>
-  </si>
-  <si>
-    <t>init-1-B</t>
-  </si>
-  <si>
-    <t>init-2-A</t>
-  </si>
-  <si>
-    <t>init-2-B</t>
-  </si>
-  <si>
-    <t>Target-A</t>
-  </si>
-  <si>
-    <t>Target-B</t>
-  </si>
-  <si>
-    <t>210034800d7aa1a0</t>
-  </si>
-  <si>
-    <t>210034800d7ab1b0</t>
-  </si>
-  <si>
-    <t>210034800d7aa1a1</t>
-  </si>
-  <si>
-    <t>210034800d7aa1a2</t>
-  </si>
-  <si>
-    <t>210034800d7aa1a3</t>
-  </si>
-  <si>
-    <t>210034800d7aa2a0</t>
-  </si>
-  <si>
-    <t>210034800d7atat0</t>
-  </si>
-  <si>
-    <t>210034800d7ab1b1</t>
-  </si>
-  <si>
-    <t>210034800d7aa2a1</t>
-  </si>
-  <si>
-    <t>210034800d7atat1</t>
-  </si>
-  <si>
-    <t>210034800d7ab1b2</t>
-  </si>
-  <si>
-    <t>210034800d7atat2</t>
-  </si>
-  <si>
-    <t>210034800d7ab1b3</t>
-  </si>
-  <si>
-    <t>210034800d7atat3</t>
-  </si>
-  <si>
-    <t>210034800d7ab2b0</t>
-  </si>
-  <si>
-    <t>210034800d7ab2b1</t>
-  </si>
-  <si>
-    <t>210034800d7atbt0</t>
-  </si>
-  <si>
-    <t>210034800d7atbt1</t>
-  </si>
-  <si>
-    <t>210034800d7atbt2</t>
-  </si>
-  <si>
-    <t>210034800d7atbt3</t>
-  </si>
-  <si>
-    <t>SR or SB</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>210034800d7aa2a2</t>
-  </si>
-  <si>
-    <t>210034800d7ab2b2</t>
-  </si>
-  <si>
-    <t>210034800d7aa2a3</t>
-  </si>
-  <si>
-    <t>210034800d7ab2b3</t>
+    <t>20.20.20.3</t>
+  </si>
+  <si>
+    <t>sks06sq131</t>
+  </si>
+  <si>
+    <t>20.20.20.4</t>
+  </si>
+  <si>
+    <t>sks06sq132</t>
+  </si>
+  <si>
+    <t>20.20.20.5</t>
+  </si>
+  <si>
+    <t>sks06sq133</t>
+  </si>
+  <si>
+    <t>20.20.20.6</t>
+  </si>
+  <si>
+    <t>N_OS_1</t>
+  </si>
+  <si>
+    <t>210034800d333335</t>
   </si>
 </sst>
 </file>
@@ -201,12 +210,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,242 +502,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:H12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="1"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="1"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="1"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="1"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="1"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="1"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="1"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="1"/>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cifsshare/pwwns.xlsx
+++ b/cifsshare/pwwns.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>sks06sq127</t>
   </si>
@@ -39,12 +39,6 @@
     <t>OTRS</t>
   </si>
   <si>
-    <t>210034800d7atbt0</t>
-  </si>
-  <si>
-    <t>210034800d7atbt1</t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
@@ -96,18 +90,6 @@
     <t>210034800d222223</t>
   </si>
   <si>
-    <t>210034800d333333</t>
-  </si>
-  <si>
-    <t>210034800d333334</t>
-  </si>
-  <si>
-    <t>210034800d444444</t>
-  </si>
-  <si>
-    <t>210034800d444445</t>
-  </si>
-  <si>
     <t>zonename</t>
   </si>
   <si>
@@ -132,40 +114,19 @@
     <t>SR/SB</t>
   </si>
   <si>
-    <t>sks06sq129</t>
-  </si>
-  <si>
-    <t>20.20.20.2</t>
-  </si>
-  <si>
-    <t>sks06sq130</t>
-  </si>
-  <si>
-    <t>20.20.20.3</t>
-  </si>
-  <si>
-    <t>sks06sq131</t>
-  </si>
-  <si>
-    <t>20.20.20.4</t>
-  </si>
-  <si>
-    <t>sks06sq132</t>
-  </si>
-  <si>
-    <t>20.20.20.5</t>
-  </si>
-  <si>
-    <t>sks06sq133</t>
-  </si>
-  <si>
-    <t>20.20.20.6</t>
-  </si>
-  <si>
     <t>N_OS_1</t>
   </si>
   <si>
-    <t>210034800d333335</t>
+    <t>tttttttt11111111</t>
+  </si>
+  <si>
+    <t>tttttttt22222222</t>
+  </si>
+  <si>
+    <t>210034800d222244</t>
+  </si>
+  <si>
+    <t>210034800d222245</t>
   </si>
 </sst>
 </file>
@@ -504,13 +465,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -518,55 +480,52 @@
     <col min="6" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -588,30 +547,30 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -620,159 +579,51 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>

--- a/cifsshare/pwwns.xlsx
+++ b/cifsshare/pwwns.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>sks06sq127</t>
   </si>
@@ -27,12 +27,6 @@
     <t>sks06sq128</t>
   </si>
   <si>
-    <t>20.20.20.1</t>
-  </si>
-  <si>
-    <t>10.10.10.2</t>
-  </si>
-  <si>
     <t>IS_name</t>
   </si>
   <si>
@@ -78,12 +72,6 @@
     <t>p4</t>
   </si>
   <si>
-    <t>210034800d111111</t>
-  </si>
-  <si>
-    <t>210034800d111112</t>
-  </si>
-  <si>
     <t>210034800d222222</t>
   </si>
   <si>
@@ -117,16 +105,37 @@
     <t>N_OS_1</t>
   </si>
   <si>
-    <t>tttttttt11111111</t>
-  </si>
-  <si>
-    <t>tttttttt22222222</t>
-  </si>
-  <si>
-    <t>210034800d222244</t>
-  </si>
-  <si>
-    <t>210034800d222245</t>
+    <t>sks06sq129</t>
+  </si>
+  <si>
+    <t>sks06sq130</t>
+  </si>
+  <si>
+    <t>N_OS1_A10</t>
+  </si>
+  <si>
+    <t>N_OS1_A11</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>210034800d111112"</t>
+  </si>
+  <si>
+    <t>210034800d222224</t>
+  </si>
+  <si>
+    <t>210034800d222225</t>
   </si>
 </sst>
 </file>
@@ -171,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -182,6 +191,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,9 +481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,46 +502,46 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -535,93 +551,129 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1"/>
     </row>

--- a/cifsshare/pwwns.xlsx
+++ b/cifsshare/pwwns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="6765"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H3"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,21 +663,33 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
